--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>4884157341.923686</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.254744096657204</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.838722518652772e-07</v>
+        <v>0.5200107356519607</v>
       </c>
       <c r="I2" t="n">
-        <v>2.297310709953308</v>
+        <v>3.109994615976499</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>3658398931.87071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.3973764144023036</v>
       </c>
       <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.273214000748028e-06</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.304809409379959</v>
+        <v>6.706775384013417</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>5503252952.535102</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.2698756794953133</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.13819462437143e-06</v>
+        <v>0.5709318552811412</v>
       </c>
       <c r="I4" t="n">
-        <v>2.294686985015869</v>
+        <v>6.851786743667762</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>6449407251.016255</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.2250039427687465</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9.109117093352998e-07</v>
+        <v>0.4199285466207958</v>
       </c>
       <c r="I5" t="n">
-        <v>2.29133677482605</v>
+        <v>6.694691104042222</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>3823271445.01972</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.3199498512179771</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.307402572722537e-06</v>
+        <v>0.7394425072005206</v>
       </c>
       <c r="I6" t="n">
-        <v>2.29818526506424</v>
+        <v>5.643358746548227</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>8153361780.425218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1442479975344186</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.844041178942515e-06</v>
+        <v>0.1481669475838391</v>
       </c>
       <c r="I7" t="n">
-        <v>2.298842388391495</v>
+        <v>2.596707615263668</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>8611231913.585276</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.1776428477772934</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.684949139956355e-06</v>
+        <v>0.2605479973662339</v>
       </c>
       <c r="I8" t="n">
-        <v>2.297007465362549</v>
+        <v>7.057219503178082</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>10692050350.38411</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.1087732588126298</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.181581308557034e-05</v>
+        <v>0.02878661351088073</v>
       </c>
       <c r="I9" t="n">
-        <v>2.29920157790184</v>
+        <v>5.365420307210734</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>8351917309.332906</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.1734359448675741</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>6.035404252712276e-06</v>
+        <v>0.2463908395443409</v>
       </c>
       <c r="I10" t="n">
-        <v>2.293075001239777</v>
+        <v>6.682606824071026</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>7302844496.156974</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1474178028255333</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.243415875221127e-06</v>
+        <v>0.1588340427685903</v>
       </c>
       <c r="I11" t="n">
-        <v>2.294347494840622</v>
+        <v>2.468797137495633</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>4122670178.873339</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.3075154462990454</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.102810424056531e-06</v>
+        <v>0.6975979872207648</v>
       </c>
       <c r="I12" t="n">
-        <v>2.305497288703918</v>
+        <v>5.848791506058547</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>7184656854.913769</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.1724468537634662</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.549640321335988e-06</v>
+        <v>0.2430623294356965</v>
       </c>
       <c r="I13" t="n">
-        <v>2.301415747404099</v>
+        <v>3.256820557290959</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>10265211822.9262</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.134985749334981</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.259400428919398e-07</v>
+        <v>0.1169974358648882</v>
       </c>
       <c r="I14" t="n">
-        <v>2.297672635316849</v>
+        <v>6.392584104762338</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>8081002485.922487</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.1818435017882873</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>8.673097074015103e-06</v>
+        <v>0.274684126263199</v>
       </c>
       <c r="I15" t="n">
-        <v>2.304339975118637</v>
+        <v>6.779281063840589</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>7094523211.246362</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.2204201443052685</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.574489867452596e-06</v>
+        <v>0.4045030519840445</v>
       </c>
       <c r="I16" t="n">
-        <v>2.302567261457443</v>
+        <v>7.214315142803621</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>4713949686.714123</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.2461608305388712</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.400172738849056e-06</v>
+        <v>0.4911261486595181</v>
       </c>
       <c r="I17" t="n">
-        <v>2.309293442964554</v>
+        <v>2.618799626035499</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>11840655421.14887</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1030885281755429</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.295823001627887e-06</v>
+        <v>0.009656238854917693</v>
       </c>
       <c r="I18" t="n">
-        <v>2.309740954637527</v>
+        <v>5.631274466577032</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>3950183374.649058</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.332879174278035</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.544209655368973e-06</v>
+        <v>0.7829525360791513</v>
       </c>
       <c r="I19" t="n">
-        <v>2.287860995531082</v>
+        <v>6.066308545540064</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>7172417851.593281</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.2136438759852238</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>8.265592777439712e-07</v>
+        <v>0.3816994118456583</v>
       </c>
       <c r="I20" t="n">
-        <v>2.299683195352554</v>
+        <v>7.069303783149278</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>11787506312.84394</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.119997441567328</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.079360417341141e-06</v>
+        <v>0.06655846850494729</v>
       </c>
       <c r="I21" t="n">
-        <v>2.295487368106842</v>
+        <v>6.525511184445487</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>11205155578.95179</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1281040419194501</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.185287221526843e-05</v>
+        <v>0.09383896987303472</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>6.62218542421505</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>7463990851.398847</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.1677478503025424</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.229734681489298e-06</v>
+        <v>0.2272491445275714</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>5.776285826231375</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>6392883998.171427</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.2151110125560461</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.074288332348355e-05</v>
+        <v>0.3866366505757028</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>6.344246984877556</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>7253450967.293547</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.182367256077774</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>9.584925809624045e-07</v>
+        <v>0.2764466751727606</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>2.986385531657999</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>10603086287.69882</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1032628604815048</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.054993578070279e-06</v>
+        <v>0.01024290558384455</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>5.051229027959654</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>7807832458.985308</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.1875346349568431</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9.761142539060362e-07</v>
+        <v>0.2938360468522175</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>6.755112503898198</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>9618966274.977865</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1198186548380067</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.503756008430324e-06</v>
+        <v>0.06595681165719512</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>5.317083187325952</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>6695345314.421759</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.2038284996384629</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.82127846533106e-06</v>
+        <v>0.348668501695264</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>6.295909864992775</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>8203835503.239656</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.1877416141988441</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.543779690643312e-06</v>
+        <v>0.2945325777343767</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>3.605742163748111</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>7233471516.166432</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.2035118513579461</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>9.300574044915724e-07</v>
+        <v>0.3476029102667214</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>6.791365343811784</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>9196623767.997116</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1275997311191047</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>2.499168816748745e-06</v>
+        <v>0.09214185260054431</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>5.413757427095515</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>4617734570.362284</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.2376759411517873</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.221543710208086e-05</v>
+        <v>0.4625726211044294</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>5.06331330793085</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>10211273944.44657</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1377509248750486</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.629060470869068e-06</v>
+        <v>0.1263028625329325</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>6.489258344531901</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>5936417662.224309</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.2091481648774001</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>8.839603219578828e-06</v>
+        <v>0.3665703506239092</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>2.907102444300327</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>9654143472.338848</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.1600804985370283</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>8.913081348991656e-07</v>
+        <v>0.2014468117070124</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>7.129725183005254</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>5343992736.180964</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.2249815951020945</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.784818541382028e-06</v>
+        <v>0.4198533417847128</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>5.546684506778664</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>10689882900.54777</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.1002191062303501</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.080703250817189e-06</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>4.942470508218896</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>10014194202.22863</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.1163976378389579</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.388495762817206e-06</v>
+        <v>0.05444433356909385</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>2.565753739931043</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>6893506796.441082</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.2021489963162772</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>8.224683136747695e-07</v>
+        <v>0.3430166019236658</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>6.428836944675925</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>7606819902.43532</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.168385965019354</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.350825740275144e-06</v>
+        <v>0.2293965415434387</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>5.909212905914524</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>4468406654.192487</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.2725840426491163</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1.020139830678629e-06</v>
+        <v>0.5800460957164995</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>2.895998295209857</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>8680775990.79096</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.1469503338587785</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.467161534766941e-06</v>
+        <v>0.1572609064064708</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>5.885044345972133</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>4988128099.913676</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.3019467864159433</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.182208866808555e-06</v>
+        <v>0.6788582162982213</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>6.948460983437324</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>6065285744.001172</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.2582557996627335</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8.621801854316854e-07</v>
+        <v>0.5318283921892766</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>7.226399422774817</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>10273564584.1985</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1045352750934972</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.13058517842462e-06</v>
+        <v>0.01452486189789235</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>4.954554788190092</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>7963003882.688669</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1562488563775381</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1.612018653551711e-05</v>
+        <v>0.1885524892248846</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>5.740032986317789</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>6465971633.744241</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.2369857519948117</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.393512785486273e-06</v>
+        <v>0.460249982091371</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>7.069303783149278</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>4974899057.54086</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.2316693437735212</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1.614879570719981e-06</v>
+        <v>0.4423590937467568</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>5.317083187325952</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>6389415461.341113</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.2168676177631366</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1.139417254958242e-05</v>
+        <v>0.3925480152259508</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>6.392584104762338</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>4068198783.046774</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.3071258551098275</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>9.701799117039804e-07</v>
+        <v>0.6962869267874389</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>5.76420154626018</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>5074716156.654241</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.276148183807767</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>4.289954263211071e-06</v>
+        <v>0.5920402182254709</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>6.465089784589511</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>9941401763.615252</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.1198847484830536</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1.786822177331806e-06</v>
+        <v>0.06617923137641216</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>5.498347386893882</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>7281663412.323936</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.1989274411597261</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1.216455784565728e-06</v>
+        <v>0.3321753570073979</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>6.682606824071026</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>8140139589.286878</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.1824531525177582</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.190215511136656e-06</v>
+        <v>0.2767357356724419</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>6.851786743667762</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>3997019698.369969</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.3840267638976049</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1.223717472537119e-06</v>
+        <v>0.9550754763972563</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>7.081388063120473</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>9245455890.408857</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.1181429713090867</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1.576452011534019e-06</v>
+        <v>0.06031776633393358</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>5.039144747988459</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>10163012901.70526</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.1121158322852087</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2.384767523564159e-06</v>
+        <v>0.04003511180002504</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>5.256661787469976</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>4824281934.861987</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.2823389715590837</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>5.512872334595354e-06</v>
+        <v>0.612873586886</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>6.28382558502158</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>6031744781.659769</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.2544806843729918</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.988304306339464e-05</v>
+        <v>0.5191242951136725</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>7.081388063120473</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>8521595472.373326</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.1241825622244979</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>8.220831942086091e-07</v>
+        <v>0.08064232423414286</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>4.88204910836292</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>9309378133.086283</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1617883846233535</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3.88062513172399e-06</v>
+        <v>0.207194225751216</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>6.948460983437324</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>3911771192.876031</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.3756553534307316</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1.474941592772437e-06</v>
+        <v>0.9269038304822614</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>6.779281063840589</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>8386804821.817136</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.1630324788819573</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.708412540062681e-06</v>
+        <v>0.2113808778186251</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>6.30799414496397</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>6628800539.16617</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1821655038291279</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>2.248953895548783e-06</v>
+        <v>0.2757677342781641</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>5.570853066721055</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>6146458534.550295</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.2002963646593728</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.140298266481331e-06</v>
+        <v>0.3367820870523967</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>5.679611586461813</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>5081878346.010122</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.2365857519875398</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2.728891424231722e-06</v>
+        <v>0.4589038936854268</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>5.546684506778664</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>8428174012.484136</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.1386122235100445</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>9.875348321213629e-07</v>
+        <v>0.1292013227467986</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>5.389588867153124</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>3853031201.344423</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.3698252325345298</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1.164152107209025e-06</v>
+        <v>0.9072841854798639</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>6.573848304330268</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>10675669192.90728</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.1243978907553936</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>9.449701621612306e-07</v>
+        <v>0.08136695231823865</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>3.612025250112984</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>5252214098.466772</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.2079666992857089</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>8.11765247095346e-06</v>
+        <v>0.3625944578586957</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>5.039144747988459</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>6258744491.642013</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1954473667416119</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>8.840387303819422e-07</v>
+        <v>0.3204641376551874</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>2.583040129161504</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>4579737645.018616</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.2911235562696912</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>1.538937530607934e-06</v>
+        <v>0.642435655423531</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>6.150898505338431</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>11014919632.11313</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.1077251318784577</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.794538493370981e-06</v>
+        <v>0.0252594347898864</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>5.474178826951491</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>5152969821.207227</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.2887293292261972</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>3.478848880453085e-06</v>
+        <v>0.6343785524088928</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>6.863871023638957</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>8622235163.816422</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.134884880533138</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>9.477466812690636e-07</v>
+        <v>0.1166579900593534</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>3.305421891510486</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>5149027303.348151</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.2645320600872142</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1.13671870849456e-06</v>
+        <v>0.5529493952805044</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>3.688979658815596</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>10295035566.31487</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1216186590065546</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>3.669326862535974e-06</v>
+        <v>0.07201422340190726</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>2.648593735473615</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>10461264389.74309</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.1064155066276209</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.496040056213108e-06</v>
+        <v>0.02085225645429909</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>5.135818987758022</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>8394485296.608577</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1441610935323112</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.076694549159776e-06</v>
+        <v>0.1478744964149882</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>5.58293734669225</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>5461526444.926293</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.203353654184309</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>9.731844587969634e-07</v>
+        <v>0.3470705418231845</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>5.123734707786827</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>8897007294.815918</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1289526671140869</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>2.729699918884792e-06</v>
+        <v>0.09669478115984895</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>2.875553561645218</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>4304213054.845142</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.2659425580040631</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>4.703460874987408e-06</v>
+        <v>0.5576960324254091</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>5.280830347412366</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>4318167632.417223</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.3190703227120286</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.762139236426261e-06</v>
+        <v>0.7364826994429421</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>6.356331264848752</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>8698432954.863838</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.1454475049201324</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>1.102838806790536e-06</v>
+        <v>0.1522035549723394</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>5.836707226087352</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>10777544771.01615</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.1249233001212631</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.208544759892001e-06</v>
+        <v>0.08313507092552354</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>6.211319905194408</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>7639930220.003053</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.1422849186703129</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.945732948963999e-06</v>
+        <v>0.1415607534566202</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>5.014976188046068</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>10979187227.19264</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.1071214185224099</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.40036661317354e-06</v>
+        <v>0.02322780595409667</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>5.42584170706671</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>11325009887.4583</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.1177278892689099</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>2.186066621049092e-06</v>
+        <v>0.05892092355483357</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>3.483220686119107</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>8560805189.284107</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.139524473877192</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>8.462555222942803e-06</v>
+        <v>0.1322712467973273</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>5.510431666865077</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>6703727764.733375</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.187944175870052</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2.452819059497384e-06</v>
+        <v>0.2952142425147384</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>5.812538666144961</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>4931092690.696568</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.2916280833076089</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>9.38299959011447e-07</v>
+        <v>0.6441335003832306</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>6.634269704186245</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>6424611276.405644</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.1961093886920559</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>8.756703414764745e-06</v>
+        <v>0.3226919877946189</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>2.878741435751353</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>6281611531.270209</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1893149638560235</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.325596174971118e-06</v>
+        <v>0.2998272469681851</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>5.486263106922687</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>6418103329.99868</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.2379370183808359</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.42926211138865e-06</v>
+        <v>0.4634512036661529</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>7.045135223206887</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>8619501531.105896</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.180815218185829</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1.041693298647149e-06</v>
+        <v>0.2712237247378789</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>7.190146582861231</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>7214989385.311957</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.2174659623469647</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.147044896285263e-05</v>
+        <v>0.3945615769569711</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>7.238483702746012</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>6396763035.275169</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.1670706127625106</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>3.065116520589085e-06</v>
+        <v>0.2249700905672364</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>1.586601625318113</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>7996050184.212819</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1746030649928249</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.375190402173361e-06</v>
+        <v>0.2503184566452986</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>1.875266323418667</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>4046085997.45808</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.288087932567992</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>1.732385478952247e-06</v>
+        <v>0.632220110935079</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>5.377504587181929</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>5041198917.086436</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.3372182169281483</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>4.082618890214172e-06</v>
+        <v>0.7975543733242325</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>7.84269770130578</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>4884157341.923686</v>
+        <v>7078576767.362761</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.254744096657204</v>
+        <v>0.1765113342785011</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5200107356519607</v>
+        <v>0.3490334098007247</v>
       </c>
       <c r="I2" t="n">
-        <v>3.109994615976499</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.861330076465334</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7890097690497236</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8.918865304529138</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>3658398931.87071</v>
+        <v>6350878477.38649</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3973764144023036</v>
+        <v>0.2478796272996607</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5858978726372565</v>
       </c>
       <c r="I3" t="n">
-        <v>6.706775384013417</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.102829089210402</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.859784780056724</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10.09286651192408</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>5503252952.535102</v>
+        <v>13299339366.67487</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2698756794953133</v>
+        <v>0.0984781998481668</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5709318552811412</v>
+        <v>0.090048982853425</v>
       </c>
       <c r="I4" t="n">
-        <v>6.851786743667762</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.73719954298976</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8032635559995955</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.328071577002152</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6449407251.016255</v>
+        <v>14784376776.08529</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2250039427687465</v>
+        <v>0.07281803665484381</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4199285466207958</v>
+        <v>0.004885382691625363</v>
       </c>
       <c r="I5" t="n">
-        <v>6.694691104042222</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.689573459803381</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6587892780336111</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8.48621210086884</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>3823271445.01972</v>
+        <v>4724440292.284832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3199498512179771</v>
+        <v>0.2849790402047542</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7394425072005206</v>
+        <v>0.7090272363549832</v>
       </c>
       <c r="I6" t="n">
-        <v>5.643358746548227</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.813308178297818</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8116587306609654</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.419866434921492</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>8153361780.425218</v>
+        <v>12926451155.85476</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1442479975344186</v>
+        <v>0.1240144460897858</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1481669475838391</v>
+        <v>0.1748013146359599</v>
       </c>
       <c r="I7" t="n">
-        <v>2.596707615263668</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.08547917519292</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.865438652921257</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.22329388323222</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>8611231913.585276</v>
+        <v>10845334573.32198</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1776428477772934</v>
+        <v>0.1111002516200777</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2605479973662339</v>
+        <v>0.131940352063589</v>
       </c>
       <c r="I8" t="n">
-        <v>7.057219503178082</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.717533166837573</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7780748092926306</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.843963019015039</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>10692050350.38411</v>
+        <v>15399966270.53811</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1087732588126298</v>
+        <v>0.08657613182898304</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02878661351088073</v>
+        <v>0.0505471700922317</v>
       </c>
       <c r="I9" t="n">
-        <v>5.365420307210734</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.022748388151717</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8086837676061116</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9.150926963970514</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8351917309.332906</v>
+        <v>5119040506.088691</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1734359448675741</v>
+        <v>0.2671050518888608</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2463908395443409</v>
+        <v>0.6497051976460665</v>
       </c>
       <c r="I10" t="n">
-        <v>6.682606824071026</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.696487329581541</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8163664124969453</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.630840920357365</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7302844496.156974</v>
+        <v>8579434266.169013</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1474178028255333</v>
+        <v>0.1767746873451158</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1588340427685903</v>
+        <v>0.3499074531611501</v>
       </c>
       <c r="I11" t="n">
-        <v>2.468797137495633</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.772107282988348</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.84820929813442</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.19207867970005</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4122670178.873339</v>
+        <v>9658522910.103817</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3075154462990454</v>
+        <v>0.1318031288892306</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6975979872207648</v>
+        <v>0.2006511996394816</v>
       </c>
       <c r="I12" t="n">
-        <v>5.848791506058547</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.768961165465499</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7946585065030415</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.124208964595329</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>7184656854.913769</v>
+        <v>4700655045.312819</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1724468537634662</v>
+        <v>0.3048099288691051</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2430623294356965</v>
+        <v>0.7748440380775614</v>
       </c>
       <c r="I13" t="n">
-        <v>3.256820557290959</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.780272738364951</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8306839563614669</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.833406388864384</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10265211822.9262</v>
+        <v>7615111614.407425</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.134985749334981</v>
+        <v>0.2115431698929019</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1169974358648882</v>
+        <v>0.4653006844365711</v>
       </c>
       <c r="I14" t="n">
-        <v>6.392584104762338</v>
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9112437033603874</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4279595512580393</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.100660717354399</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.031865331132878</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.53664590530317</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8081002485.922487</v>
+        <v>7000492433.483381</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1818435017882873</v>
+        <v>0.1403145934851373</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.274684126263199</v>
+        <v>0.2288999275285438</v>
       </c>
       <c r="I15" t="n">
-        <v>6.779281063840589</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.778545276010544</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6217076597825235</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.655607919639927</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7094523211.246362</v>
+        <v>7705314897.344029</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2204201443052685</v>
+        <v>0.1730324493888717</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4045030519840445</v>
+        <v>0.3374873272790666</v>
       </c>
       <c r="I16" t="n">
-        <v>7.214315142803621</v>
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5258316820720482</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.198532848168407</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.7407188404744195</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.615843961319984</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>4713949686.714123</v>
+        <v>13154654929.52043</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2461608305388712</v>
+        <v>0.1091192226394896</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4911261486595181</v>
+        <v>0.1253655084532553</v>
       </c>
       <c r="I17" t="n">
-        <v>2.618799626035499</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.018234080411449</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8312447881567311</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.606661682723171</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>11840655421.14887</v>
+        <v>9714218052.21294</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1030885281755429</v>
+        <v>0.1129812409090384</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.009656238854917693</v>
+        <v>0.1381831736117917</v>
       </c>
       <c r="I18" t="n">
-        <v>5.631274466577032</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.768995351759855</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7501135099615411</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.233274847470968</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>3950183374.649058</v>
+        <v>7786655814.573819</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.332879174278035</v>
+        <v>0.1681973662619994</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7829525360791513</v>
+        <v>0.3214401539597183</v>
       </c>
       <c r="I19" t="n">
-        <v>6.066308545540064</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.109434996929721</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8032635559995955</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8.955836123062191</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>7172417851.593281</v>
+        <v>8667037324.577526</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2136438759852238</v>
+        <v>0.1707567758827138</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3816994118456583</v>
+        <v>0.3299345869820889</v>
       </c>
       <c r="I20" t="n">
-        <v>7.069303783149278</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.354089727567308</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8406467357767179</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.45884498796705</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>11787506312.84394</v>
+        <v>7971176789.299006</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.119997441567328</v>
+        <v>0.1238850995408474</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06655846850494729</v>
+        <v>0.1743720259485456</v>
       </c>
       <c r="I21" t="n">
-        <v>6.525511184445487</v>
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9268354538436745</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2086843704286188</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.023928896243294</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7988852659733737</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11.95377642322418</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>11205155578.95179</v>
+        <v>12512211018.92866</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1281040419194501</v>
+        <v>0.1264454026236097</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09383896987303472</v>
+        <v>0.1828694242850506</v>
       </c>
       <c r="I22" t="n">
-        <v>6.62218542421505</v>
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9050196251615936</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.1657916361955795</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.838492802291938</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.022437445808931</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15.61025611388669</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7463990851.398847</v>
+        <v>6147676750.646269</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1677478503025424</v>
+        <v>0.2292299802281985</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2272491445275714</v>
+        <v>0.5240014975290123</v>
       </c>
       <c r="I23" t="n">
-        <v>5.776285826231375</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.080102712178142</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8255962377614482</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.431822043050822</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6392883998.171427</v>
+        <v>12395034725.54146</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2151110125560461</v>
+        <v>0.120244351306962</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3866366505757028</v>
+        <v>0.1622887346403641</v>
       </c>
       <c r="I24" t="n">
-        <v>6.344246984877556</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.904032003344157</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8428236521329243</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9.95244103931433</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>7253450967.293547</v>
+        <v>9908947002.481335</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.182367256077774</v>
+        <v>0.1303225529086618</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2764466751727606</v>
+        <v>0.1957373111396949</v>
       </c>
       <c r="I25" t="n">
-        <v>2.986385531657999</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.941028987613941</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7989880615765435</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.038732243916929</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>10603086287.69882</v>
+        <v>4169065923.259032</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1032628604815048</v>
+        <v>0.3713204632633524</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01024290558384455</v>
+        <v>0.9955860698029559</v>
       </c>
       <c r="I26" t="n">
-        <v>5.051229027959654</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.777884969135469</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8545685260473429</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.31348555181139</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>7807832458.985308</v>
+        <v>6288729020.523164</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1875346349568431</v>
+        <v>0.2444980416523159</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2938360468522175</v>
+        <v>0.5746747168913766</v>
       </c>
       <c r="I27" t="n">
-        <v>6.755112503898198</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.792021737181128</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8524610687593028</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10.25719963800493</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>9618966274.977865</v>
+        <v>4585200072.644257</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1198186548380067</v>
+        <v>0.3301944072261347</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06595681165719512</v>
+        <v>0.8590926669279211</v>
       </c>
       <c r="I28" t="n">
-        <v>5.317083187325952</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.750260340193504</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8476743182429318</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10.20322602466513</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>6695345314.421759</v>
+        <v>10256924836.87047</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2038284996384629</v>
+        <v>0.1578234261969997</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.348668501695264</v>
+        <v>0.2870100501002074</v>
       </c>
       <c r="I29" t="n">
-        <v>6.295909864992775</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.865421038934312</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8684866036098294</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10.50431103326228</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>8203835503.239656</v>
+        <v>4878319453.149388</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1877416141988441</v>
+        <v>0.2561228394326185</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2945325777343767</v>
+        <v>0.6132562965432581</v>
       </c>
       <c r="I30" t="n">
-        <v>3.605742163748111</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.697114211142176</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7890097690497236</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.083081169852296</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7233471516.166432</v>
+        <v>6260617387.483928</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2035118513579461</v>
+        <v>0.1568968664278594</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3476029102667214</v>
+        <v>0.2839348878297817</v>
       </c>
       <c r="I31" t="n">
-        <v>6.791365343811784</v>
+        <v>3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.9066181664331583</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2600226348278555</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.075267160642531</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7870818327386711</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11.66636949413089</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>9196623767.997116</v>
+        <v>11553195434.07981</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1275997311191047</v>
+        <v>0.09000954202960092</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.09214185260054431</v>
+        <v>0.06194232651870957</v>
       </c>
       <c r="I32" t="n">
-        <v>5.413757427095515</v>
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.915389612613437</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1915500246059399</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.006794550420616</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8156749487640552</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12.30670442486049</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>4617734570.362284</v>
+        <v>6513756796.537133</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2376759411517873</v>
+        <v>0.2087065041671072</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4625726211044294</v>
+        <v>0.4558860652136069</v>
       </c>
       <c r="I33" t="n">
-        <v>5.06331330793085</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.806290294498403</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8146084661738203</v>
+      </c>
+      <c r="N33" t="n">
+        <v>9.485879028978005</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>10211273944.44657</v>
+        <v>8652598805.570299</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1377509248750486</v>
+        <v>0.1283569693864707</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1263028625329325</v>
+        <v>0.1892137295121211</v>
       </c>
       <c r="I34" t="n">
-        <v>6.489258344531901</v>
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9120291920172092</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.4125898212950322</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.227834347109708</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8419542401566895</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12.61125045602408</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5936417662.224309</v>
+        <v>11499692615.27241</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2091481648774001</v>
+        <v>0.1391730495365147</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3665703506239092</v>
+        <v>0.2251112535565517</v>
       </c>
       <c r="I35" t="n">
-        <v>2.907102444300327</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.048524807019594</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8649282194829943</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10.25003958264029</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>9654143472.338848</v>
+        <v>8112739348.480596</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1600804985370283</v>
+        <v>0.1494905133649014</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2014468117070124</v>
+        <v>0.2593539182483021</v>
       </c>
       <c r="I36" t="n">
-        <v>7.129725183005254</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.752940332089341</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7800306036994404</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.847671741899468</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5343992736.180964</v>
+        <v>7428476705.607356</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2249815951020945</v>
+        <v>0.1332883522745121</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4198533417847128</v>
+        <v>0.2055805124260807</v>
       </c>
       <c r="I37" t="n">
-        <v>5.546684506778664</v>
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.89367456520563</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2225801142759617</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.037824640090637</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7843043214846067</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11.6482617896015</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>10689882900.54777</v>
+        <v>5922780948.797217</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1002191062303501</v>
+        <v>0.2127255086575273</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.4692247524577968</v>
       </c>
       <c r="I38" t="n">
-        <v>4.942470508218896</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.793460611280575</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7915319356088344</v>
+      </c>
+      <c r="N38" t="n">
+        <v>9.037178100896114</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>10014194202.22863</v>
+        <v>6410509969.719124</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1163976378389579</v>
+        <v>0.2341327721335347</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05444433356909385</v>
+        <v>0.5402733897362764</v>
       </c>
       <c r="I39" t="n">
-        <v>2.565753739931043</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.487802942698662</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8449875272913666</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9.41194760312867</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>6893506796.441082</v>
+        <v>7080832157.245304</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2021489963162772</v>
+        <v>0.1964311622012953</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3430166019236658</v>
+        <v>0.4151453923211682</v>
       </c>
       <c r="I40" t="n">
-        <v>6.428836944675925</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.009155239019237</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8215879405831631</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9.422603572644025</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>7606819902.43532</v>
+        <v>8910507403.906086</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.168385965019354</v>
+        <v>0.1316969580750901</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2293965415434387</v>
+        <v>0.2002988289746425</v>
       </c>
       <c r="I41" t="n">
-        <v>5.909212905914524</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.858785479833665</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7701345571012566</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8.543905662191465</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4468406654.192487</v>
+        <v>6043676352.014162</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2725840426491163</v>
+        <v>0.1872331366028365</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5800460957164995</v>
+        <v>0.3846180348588051</v>
       </c>
       <c r="I42" t="n">
-        <v>2.895998295209857</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.81016755631079</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7592409806973049</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8.374652057635309</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8680775990.79096</v>
+        <v>6004007392.263631</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1469503338587785</v>
+        <v>0.1649114258712965</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1572609064064708</v>
+        <v>0.3105344355712184</v>
       </c>
       <c r="I43" t="n">
-        <v>5.885044345972133</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9438358354466079</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.942860385505402</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8078094830670445</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.21332927583549</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>4988128099.913676</v>
+        <v>13615515291.54392</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3019467864159433</v>
+        <v>0.1133134278772532</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6788582162982213</v>
+        <v>0.1392856700350167</v>
       </c>
       <c r="I44" t="n">
-        <v>6.948460983437324</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.732949239792798</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8535163151260237</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.33737706272768</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6065285744.001172</v>
+        <v>9007539247.789368</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2582557996627335</v>
+        <v>0.1093406992638652</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5318283921892766</v>
+        <v>0.126100567951568</v>
       </c>
       <c r="I45" t="n">
-        <v>7.226399422774817</v>
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8985102955461231</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2700947487549394</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.085339274569615</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7843439632406339</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.60153999024306</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10273564584.1985</v>
+        <v>12835473899.52506</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1045352750934972</v>
+        <v>0.1212201179465273</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01452486189789235</v>
+        <v>0.1655272097551594</v>
       </c>
       <c r="I46" t="n">
-        <v>4.954554788190092</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.120821328170456</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8561411971021184</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.00200261387191</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7963003882.688669</v>
+        <v>5448913691.782173</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1562488563775381</v>
+        <v>0.2014207734020895</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1885524892248846</v>
+        <v>0.4317054293741612</v>
       </c>
       <c r="I47" t="n">
-        <v>5.740032986317789</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.856501783581708</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7501135099615411</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.145768415649115</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>6465971633.744241</v>
+        <v>9831427844.535059</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2369857519948117</v>
+        <v>0.1553288488862646</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.460249982091371</v>
+        <v>0.2787307892450222</v>
       </c>
       <c r="I48" t="n">
-        <v>7.069303783149278</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.844621178776813</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.850341384032493</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10.16220650187305</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>4974899057.54086</v>
+        <v>4984556990.030779</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2316693437735212</v>
+        <v>0.2264909584257816</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4423590937467568</v>
+        <v>0.5149109490450421</v>
       </c>
       <c r="I49" t="n">
-        <v>5.317083187325952</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.947408770773184</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7585479246905792</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8.223549723038399</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>6389415461.341113</v>
+        <v>4850537681.001962</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2168676177631366</v>
+        <v>0.2813507037261274</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3925480152259508</v>
+        <v>0.6969851384622211</v>
       </c>
       <c r="I50" t="n">
-        <v>6.392584104762338</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.670021255146435</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8157814122116879</v>
+      </c>
+      <c r="N50" t="n">
+        <v>9.645606989087323</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>4068198783.046774</v>
+        <v>9236832297.539991</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3071258551098275</v>
+        <v>0.1457606262223222</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6962869267874389</v>
+        <v>0.2469747835223814</v>
       </c>
       <c r="I51" t="n">
-        <v>5.76420154626018</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.715209592940343</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8116587306609654</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9.517965020278965</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>5074716156.654241</v>
+        <v>5113320003.711418</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.276148183807767</v>
+        <v>0.2192506862833284</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5920402182254709</v>
+        <v>0.490881185977793</v>
       </c>
       <c r="I52" t="n">
-        <v>6.465089784589511</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.205824454397888</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6747242400444134</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8.288660346490381</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>9941401763.615252</v>
+        <v>9412751785.169504</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1198847484830536</v>
+        <v>0.1469323691483164</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.06617923137641216</v>
+        <v>0.2508636849798654</v>
       </c>
       <c r="I53" t="n">
-        <v>5.498347386893882</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.684933276806263</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8198560447556147</v>
+      </c>
+      <c r="N53" t="n">
+        <v>9.712187618306032</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>7281663412.323936</v>
+        <v>10237678560.00271</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1989274411597261</v>
+        <v>0.1555615475389157</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3321753570073979</v>
+        <v>0.2795030935699505</v>
       </c>
       <c r="I54" t="n">
-        <v>6.682606824071026</v>
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9408148152244942</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2020342053456726</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4.874735371442031</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.039647401511117</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15.91821265878032</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>8140139589.286878</v>
+        <v>13415156593.19665</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1824531525177582</v>
+        <v>0.09860428693548308</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2767357356724419</v>
+        <v>0.09046745370292307</v>
       </c>
       <c r="I55" t="n">
-        <v>6.851786743667762</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.131722842075089</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.649975168881911</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.867780535563131</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>3997019698.369969</v>
+        <v>12156225939.48951</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3840267638976049</v>
+        <v>0.1029981201593708</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9550754763972563</v>
+        <v>0.1050501612655224</v>
       </c>
       <c r="I56" t="n">
-        <v>7.081388063120473</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.878809696142776</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7896420741809883</v>
+      </c>
+      <c r="N56" t="n">
+        <v>8.91403178747699</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>9245455890.408857</v>
+        <v>7089677150.953156</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1181429713090867</v>
+        <v>0.1389189689501712</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06031776633393358</v>
+        <v>0.2242679846614472</v>
       </c>
       <c r="I57" t="n">
-        <v>5.039144747988459</v>
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.9166451948136822</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2632254343296396</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.871422796339687</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.902943883411658</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11.18745487189347</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>10163012901.70526</v>
+        <v>10907825380.73881</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1121158322852087</v>
+        <v>0.1484056595605638</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04003511180002504</v>
+        <v>0.2557533933829474</v>
       </c>
       <c r="I58" t="n">
-        <v>5.256661787469976</v>
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9274600903484101</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.369002223010996</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.041703389107355</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.040414766167192</v>
+      </c>
+      <c r="N58" t="n">
+        <v>15.76659193423649</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>4824281934.861987</v>
+        <v>8572685273.960971</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2823389715590837</v>
+        <v>0.184247073060948</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.612873586886</v>
+        <v>0.374707578731804</v>
       </c>
       <c r="I59" t="n">
-        <v>6.28382558502158</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>7.01720467487808</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8608192137793533</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10.19917960070899</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6031744781.659769</v>
+        <v>4536167263.47344</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2544806843729918</v>
+        <v>0.2240489075841043</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5191242951136725</v>
+        <v>0.5068060184610655</v>
       </c>
       <c r="I60" t="n">
-        <v>7.081388063120473</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.649591113804882</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7272342002031307</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.895092890257732</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>8521595472.373326</v>
+        <v>12710884470.34134</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1241825622244979</v>
+        <v>0.07892655875685566</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08064232423414286</v>
+        <v>0.02515897682101187</v>
       </c>
       <c r="I61" t="n">
-        <v>4.88204910836292</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6.68793869421215</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7233829049417527</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7.779719404622904</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>9309378133.086283</v>
+        <v>6134402218.320227</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1617883846233535</v>
+        <v>0.2485140239821847</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.207194225751216</v>
+        <v>0.5880033738769566</v>
       </c>
       <c r="I62" t="n">
-        <v>6.948460983437324</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.3209261368869</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8498095320401378</v>
+      </c>
+      <c r="N62" t="n">
+        <v>9.675264503915855</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>3911771192.876031</v>
+        <v>5598728103.094142</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3756553534307316</v>
+        <v>0.2788412673830732</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9269038304822614</v>
+        <v>0.6886565619157179</v>
       </c>
       <c r="I63" t="n">
-        <v>6.779281063840589</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.973172797805794</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8571859112956439</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10.17054542810708</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>8386804821.817136</v>
+        <v>10706900688.29005</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1630324788819573</v>
+        <v>0.1164510324975402</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2113808778186251</v>
+        <v>0.1496990763463789</v>
       </c>
       <c r="I64" t="n">
-        <v>6.30799414496397</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6.992958307546639</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7883762793477032</v>
+      </c>
+      <c r="N64" t="n">
+        <v>8.774567279407425</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>6628800539.16617</v>
+        <v>14061414411.15265</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1821655038291279</v>
+        <v>0.07134604959827533</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2757677342781641</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>5.570853066721055</v>
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.9117668162501332</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.07728575609798595</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.749986922194345</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8568794916578991</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.38760291096364</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>6146458534.550295</v>
+        <v>12055058669.39968</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2002963646593728</v>
+        <v>0.1010377786954939</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.3367820870523967</v>
+        <v>0.0985439775225581</v>
       </c>
       <c r="I66" t="n">
-        <v>5.679611586461813</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7.168721298162404</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.781328136845758</v>
+      </c>
+      <c r="N66" t="n">
+        <v>8.457841438752755</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>5081878346.010122</v>
+        <v>6547764259.529229</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2365857519875398</v>
+        <v>0.1540167162451427</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4589038936854268</v>
+        <v>0.2743759478994758</v>
       </c>
       <c r="I67" t="n">
-        <v>5.546684506778664</v>
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.9174805021433783</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1490754006684983</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.964319926483174</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.803541950908792</v>
+      </c>
+      <c r="N67" t="n">
+        <v>12.10651909169266</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8428174012.484136</v>
+        <v>9814672935.665136</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1386122235100445</v>
+        <v>0.1369120579777053</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1292013227467986</v>
+        <v>0.2176072412229998</v>
       </c>
       <c r="I68" t="n">
-        <v>5.389588867153124</v>
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9134002929966859</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.5002759785930415</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.804374659598065</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.87358509266738</v>
+      </c>
+      <c r="N68" t="n">
+        <v>13.66732719374954</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>3853031201.344423</v>
+        <v>9388207627.865398</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3698252325345298</v>
+        <v>0.1311340086201224</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9072841854798639</v>
+        <v>0.1984304541738677</v>
       </c>
       <c r="I69" t="n">
-        <v>6.573848304330268</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.689339004145223</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7845501597589163</v>
+      </c>
+      <c r="N69" t="n">
+        <v>9.001664191033102</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>10675669192.90728</v>
+        <v>3815921870.212861</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1243978907553936</v>
+        <v>0.2766341151374558</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.08136695231823865</v>
+        <v>0.6813312370560968</v>
       </c>
       <c r="I70" t="n">
-        <v>3.612025250112984</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.674092580352671</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.738511438452316</v>
+      </c>
+      <c r="N70" t="n">
+        <v>8.09613618869365</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5252214098.466772</v>
+        <v>4027663653.33377</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2079666992857089</v>
+        <v>0.3726503996324691</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3625944578586957</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>5.039144747988459</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7.486304346380746</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8449875272913666</v>
+      </c>
+      <c r="N71" t="n">
+        <v>9.413446199446586</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6258744491.642013</v>
+        <v>12640551659.09678</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1954473667416119</v>
+        <v>0.1102416664700829</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3204641376551874</v>
+        <v>0.1290907909805932</v>
       </c>
       <c r="I72" t="n">
-        <v>2.583040129161504</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.92694797247307</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8221633504538512</v>
+      </c>
+      <c r="N72" t="n">
+        <v>9.516319036603957</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>4579737645.018616</v>
+        <v>11277010167.02355</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2911235562696912</v>
+        <v>0.132630162414296</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.642435655423531</v>
+        <v>0.2033960439305498</v>
       </c>
       <c r="I73" t="n">
-        <v>6.150898505338431</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.959393426862342</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8439072080023002</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9.918750733183664</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>11014919632.11313</v>
+        <v>9375199368.241182</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1077251318784577</v>
+        <v>0.1084055154541919</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0252594347898864</v>
+        <v>0.1229967833246048</v>
       </c>
       <c r="I74" t="n">
-        <v>5.474178826951491</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.9054493992360542</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3.984480563521295</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.8012103732117368</v>
+      </c>
+      <c r="N74" t="n">
+        <v>12.03972690071344</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>5152969821.207227</v>
+        <v>13613329424.56528</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2887293292261972</v>
+        <v>0.07619579367030001</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6343785524088928</v>
+        <v>0.01609583157851622</v>
       </c>
       <c r="I75" t="n">
-        <v>6.863871023638957</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.780891041921729</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7332990628082483</v>
+      </c>
+      <c r="N75" t="n">
+        <v>7.885090214243236</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>8622235163.816422</v>
+        <v>14931042063.7796</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.134884880533138</v>
+        <v>0.1057857960116263</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1166579900593534</v>
+        <v>0.1143021878357963</v>
       </c>
       <c r="I76" t="n">
-        <v>3.305421891510486</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.977128159769237</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8608192137793533</v>
+      </c>
+      <c r="N76" t="n">
+        <v>10.23925611581783</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>5149027303.348151</v>
+        <v>6326408132.980289</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2645320600872142</v>
+        <v>0.1900446485158415</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5529493952805044</v>
+        <v>0.3939491710096304</v>
       </c>
       <c r="I77" t="n">
-        <v>3.688979658815596</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6.745636542510858</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7774203218062298</v>
+      </c>
+      <c r="N77" t="n">
+        <v>8.802769893613739</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10295035566.31487</v>
+        <v>5344577985.766587</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216186590065546</v>
+        <v>0.2244668565403909</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.07201422340190726</v>
+        <v>0.5081931506290519</v>
       </c>
       <c r="I78" t="n">
-        <v>2.648593735473615</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>6.671484614906943</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7767645461357862</v>
+      </c>
+      <c r="N78" t="n">
+        <v>8.863806307808781</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>10461264389.74309</v>
+        <v>6532641584.040195</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1064155066276209</v>
+        <v>0.213716741082333</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.02085225645429909</v>
+        <v>0.4725145570181797</v>
       </c>
       <c r="I79" t="n">
-        <v>5.135818987758022</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.973370687946403</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.8227378221904835</v>
+      </c>
+      <c r="N79" t="n">
+        <v>9.481385755863268</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>8394485296.608577</v>
+        <v>12379489087.6742</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1441610935323112</v>
+        <v>0.1189142112064796</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1478744964149882</v>
+        <v>0.1578741282786192</v>
       </c>
       <c r="I80" t="n">
-        <v>5.58293734669225</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.130153248626993</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8390053745707895</v>
+      </c>
+      <c r="N80" t="n">
+        <v>9.649954242788798</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5461526444.926293</v>
+        <v>8200697010.89895</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.203353654184309</v>
+        <v>0.1236119233100259</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3470705418231845</v>
+        <v>0.173465380456071</v>
       </c>
       <c r="I81" t="n">
-        <v>5.123734707786827</v>
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9291862221451428</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2293684544955807</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.044612980310257</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.8111779044809532</v>
+      </c>
+      <c r="N81" t="n">
+        <v>12.17894510930881</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>8897007294.815918</v>
+        <v>11811662703.31394</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1289526671140869</v>
+        <v>0.1099944582429945</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09669478115984895</v>
+        <v>0.1282703307812619</v>
       </c>
       <c r="I82" t="n">
-        <v>2.875553561645218</v>
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9169605973209334</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2968466205382069</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.600945301543231</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8595895521261316</v>
+      </c>
+      <c r="N82" t="n">
+        <v>13.5908457409794</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>4304213054.845142</v>
+        <v>12827669299.94256</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2659425580040631</v>
+        <v>0.1159847112683722</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5576960324254091</v>
+        <v>0.1481514012825605</v>
       </c>
       <c r="I83" t="n">
-        <v>5.280830347412366</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.043059274741792</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.842280653100644</v>
+      </c>
+      <c r="N83" t="n">
+        <v>9.802553787271087</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>4318167632.417223</v>
+        <v>4876791273.605192</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3190703227120286</v>
+        <v>0.3249536141883062</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.7364826994429421</v>
+        <v>0.8416989816484561</v>
       </c>
       <c r="I84" t="n">
-        <v>6.356331264848752</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6.984017163856615</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8618507551250054</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10.25299793864349</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8698432954.863838</v>
+        <v>8171547182.805058</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1454475049201324</v>
+        <v>0.1538640323396386</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1522035549723394</v>
+        <v>0.2738692047824687</v>
       </c>
       <c r="I85" t="n">
-        <v>5.836707226087352</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6.698393353521897</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7909031521530239</v>
+      </c>
+      <c r="N85" t="n">
+        <v>9.119669689538579</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10777544771.01615</v>
+        <v>7929100701.346625</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1249233001212631</v>
+        <v>0.1945770104468439</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.08313507092552354</v>
+        <v>0.408991641954667</v>
       </c>
       <c r="I86" t="n">
-        <v>6.211319905194408</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>6.867382562125026</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8535163151260237</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10.20294374039545</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>7639930220.003053</v>
+        <v>12585107463.00858</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1422849186703129</v>
+        <v>0.1236316546817983</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1415607534566202</v>
+        <v>0.173530866970853</v>
       </c>
       <c r="I87" t="n">
-        <v>5.014976188046068</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>6.885374750947238</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8561411971021184</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10.23744919109513</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>10979187227.19264</v>
+        <v>9801301249.449312</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1071214185224099</v>
+        <v>0.1181241501035436</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.02322780595409667</v>
+        <v>0.1552519918811648</v>
       </c>
       <c r="I88" t="n">
-        <v>5.42584170706671</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>6.856214990517207</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7660917550529736</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8.465620110542265</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>11325009887.4583</v>
+        <v>4763643085.527254</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1177278892689099</v>
+        <v>0.3178255366359852</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.05892092355483357</v>
+        <v>0.8180415815760309</v>
       </c>
       <c r="I89" t="n">
-        <v>3.483220686119107</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>6.783191892197925</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8476743182429318</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10.17029447266071</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>8560805189.284107</v>
+        <v>6802339225.64379</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.139524473877192</v>
+        <v>0.1659660085377692</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1322712467973273</v>
+        <v>0.3140344934573825</v>
       </c>
       <c r="I90" t="n">
-        <v>5.510431666865077</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.123858207378854</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7585479246905792</v>
+      </c>
+      <c r="N90" t="n">
+        <v>8.04710028643273</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>6703727764.733375</v>
+        <v>9308513833.483488</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.187944175870052</v>
+        <v>0.1277543420220679</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2952142425147384</v>
+        <v>0.1872136675670001</v>
       </c>
       <c r="I91" t="n">
-        <v>5.812538666144961</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.645985088866415</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7741284374058379</v>
+      </c>
+      <c r="N91" t="n">
+        <v>8.836583659250344</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>4931092690.696568</v>
+        <v>7712146725.990588</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2916280833076089</v>
+        <v>0.1287253530400754</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.6441335003832306</v>
+        <v>0.1904363592337393</v>
       </c>
       <c r="I92" t="n">
-        <v>6.634269704186245</v>
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.9246192712082977</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0440646882019424</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4.716765854298301</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.8581552665474497</v>
+      </c>
+      <c r="N92" t="n">
+        <v>12.44633947665069</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>6424611276.405644</v>
+        <v>7880523535.973112</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1961093886920559</v>
+        <v>0.131625574781297</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3226919877946189</v>
+        <v>0.2000619147256946</v>
       </c>
       <c r="I93" t="n">
-        <v>2.878741435751353</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.029567254117213</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7332990628082483</v>
+      </c>
+      <c r="N93" t="n">
+        <v>7.636414002047752</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>6281611531.270209</v>
+        <v>9245375114.045292</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1893149638560235</v>
+        <v>0.1450593040797879</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2998272469681851</v>
+        <v>0.2446471631529621</v>
       </c>
       <c r="I94" t="n">
-        <v>5.486263106922687</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.089370774052727</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8104718020582294</v>
+      </c>
+      <c r="N94" t="n">
+        <v>9.120065267111862</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>6418103329.99868</v>
+        <v>5231039873.527955</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2379370183808359</v>
+        <v>0.2523728726827004</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4634512036661529</v>
+        <v>0.6008105195423866</v>
       </c>
       <c r="I95" t="n">
-        <v>7.045135223206887</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.075953295895853</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8056830465357604</v>
+      </c>
+      <c r="N95" t="n">
+        <v>9.037707634819355</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8619501531.105896</v>
+        <v>7753471326.600653</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.180815218185829</v>
+        <v>0.1952683328828128</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2712237247378789</v>
+        <v>0.4112860742650215</v>
       </c>
       <c r="I96" t="n">
-        <v>7.190146582861231</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>6.834193711231849</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8476743182429318</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10.11929265362679</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7214989385.311957</v>
+        <v>9971723603.111683</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2174659623469647</v>
+        <v>0.1523554262500736</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3945615769569711</v>
+        <v>0.2688622870615869</v>
       </c>
       <c r="I97" t="n">
-        <v>7.238483702746012</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>6.733597123567893</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8487434918672336</v>
+      </c>
+      <c r="N97" t="n">
+        <v>10.24127271377678</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>6396763035.275169</v>
+        <v>10266092079.01406</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1670706127625106</v>
+        <v>0.1079283101565957</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2249700905672364</v>
+        <v>0.1214129850902213</v>
       </c>
       <c r="I98" t="n">
-        <v>1.586601625318113</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6.735242931650514</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7529495171436044</v>
+      </c>
+      <c r="N98" t="n">
+        <v>8.323747411221575</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>7996050184.212819</v>
+        <v>5476267462.828897</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1746030649928249</v>
+        <v>0.1994580501069526</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2503184566452986</v>
+        <v>0.4251913405635807</v>
       </c>
       <c r="I99" t="n">
-        <v>1.875266323418667</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6.802349074614221</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7486860747907026</v>
+      </c>
+      <c r="N99" t="n">
+        <v>8.17137242119983</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>4046085997.45808</v>
+        <v>4271777203.937802</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.288087932567992</v>
+        <v>0.3078189046909727</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.632220110935079</v>
+        <v>0.7848305378460717</v>
       </c>
       <c r="I100" t="n">
-        <v>5.377504587181929</v>
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9642711529696285</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.1210800344735616</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.936324560288237</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.9352155794463611</v>
+      </c>
+      <c r="N100" t="n">
+        <v>14.76798702863898</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>5041198917.086436</v>
+        <v>5343477256.318453</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3372182169281483</v>
+        <v>0.2960827723425256</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7975543733242325</v>
+        <v>0.745879449529175</v>
       </c>
       <c r="I101" t="n">
-        <v>7.84269770130578</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6.805212316017668</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8613353447716946</v>
+      </c>
+      <c r="N101" t="n">
+        <v>10.42149457941622</v>
       </c>
     </row>
   </sheetData>
